--- a/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 12/Lab 12.xlsx
+++ b/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 12/Lab 12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ELECTRICAL ENGINEERING FUNDAMENTALS II\Lab\Lab 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE44BB7-E54F-49C9-B3F0-C80D517A0982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9330712E-F7F3-4C67-B4D6-50A086897E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,38 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
-    <t>VGS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VGS=3.1V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VGS=3.6V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VGS=4.1V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VGS=4.6V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VGS=5.1V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VDS=10V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,6 +47,200 @@
     <t>Experiment 12.a The iD - vDS characteristics (Transfer Characteristics)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DS</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=3.1V</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=3.6V</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=4.1V</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=4.6V</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=5.1V</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GS</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -87,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +261,15 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -140,13 +311,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -164,6 +335,6455 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="-25000"/>
+              <a:t>GS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>=3.1V </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0158999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0257000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000">
+                  <c:v>4.0365000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>5.0479000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0000">
+                  <c:v>6.0602999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0000">
+                  <c:v>7.0736999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000">
+                  <c:v>8.0886999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>9.1033000000000008</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>10.1225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0875-4F6D-8226-8BA03DBBE4CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="15907135"/>
+        <c:axId val="15908095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="15907135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15908095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="15908095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>DS</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15907135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="-25000"/>
+              <a:t>GS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>=3.6V </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$4:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0266000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000">
+                  <c:v>4.0373000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>5.0491999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0000">
+                  <c:v>6.0618999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0000">
+                  <c:v>7.0753000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000">
+                  <c:v>8.0907</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>9.1058000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>10.1242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0875-4F6D-8226-8BA03DBBE4CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="15907135"/>
+        <c:axId val="15908095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="15907135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15908095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="15908095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>DS</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15907135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="-25000"/>
+              <a:t>GS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>=4.1V </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$E$4:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$4:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0272000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0381999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0498000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0621999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0921000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1061999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.1265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0875-4F6D-8226-8BA03DBBE4CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="15907135"/>
+        <c:axId val="15908095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="15907135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15908095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="15908095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>DS</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15907135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="-25000"/>
+              <a:t>GS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>6</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>V </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$E$4:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$H$4:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0085999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0171000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0274999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0633999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0774999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0932999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1079000000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.127700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0875-4F6D-8226-8BA03DBBE4CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="15907135"/>
+        <c:axId val="15908095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="15907135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15908095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="15908095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>DS</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15907135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="-25000"/>
+              <a:t>GS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>.1V </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$J$4:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0091000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0276999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0392000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0509000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0636999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0787000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0935000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1089000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.127800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0875-4F6D-8226-8BA03DBBE4CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="15907135"/>
+        <c:axId val="15908095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="15907135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15908095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="15908095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>DS</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15907135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="-25000"/>
+              <a:t>DS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>V </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$A$20:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$20:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.1182</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000">
+                  <c:v>10.1249</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>10.128500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0000">
+                  <c:v>10.1297</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0000">
+                  <c:v>10.130800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000">
+                  <c:v>10.1312</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>10.131500000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>10.132199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0875-4F6D-8226-8BA03DBBE4CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="15907135"/>
+        <c:axId val="15908095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="15907135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15908095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="15908095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="-25000"/>
+                  <a:t>G</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>S</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15907135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>449227</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>210600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>46502</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B0C584E-4ECD-A7B6-425D-E695731AC636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>474627</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>236000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65552</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEE04CA-99C7-0EF8-6761-1E3A49ED00DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>468277</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>49176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>229650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71902</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7264F2A-FE16-D0CC-B087-4DCB07E31D02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>423827</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>185200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2052</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E89D33-EBC6-F95C-126A-D239B6ED13F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>487327</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>248700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>14752</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4D2E3F-8AF5-A20E-AB42-59166242EB33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>442877</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>157126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>204250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>52852</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E464144-E291-E2E8-9670-A28D17FCA9BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,8 +7051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="F27" zoomScale="118" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -442,71 +7062,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -862,31 +7482,31 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1007,5 +7627,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>